--- a/Data/Data_Dictionary.xlsx
+++ b/Data/Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdh19230\Desktop\Repository\Independent_Project_Howard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEAE1A8-2587-4B93-9FBA-41D9C3D6B073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A699FF99-6376-44DF-BBBE-C9949075FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7E4A650-D8A7-4AD9-BA22-D3D525B62AC1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Variable</t>
   </si>
@@ -187,48 +187,6 @@
   </si>
   <si>
     <t>Chrysomonads</t>
-  </si>
-  <si>
-    <t>Colpidium</t>
-  </si>
-  <si>
-    <t>Cryptomonads</t>
-  </si>
-  <si>
-    <t>Cyclidium</t>
-  </si>
-  <si>
-    <t>prot. Mites</t>
-  </si>
-  <si>
-    <t>nematode</t>
-  </si>
-  <si>
-    <t>Crab</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Vorticella</t>
-  </si>
-  <si>
-    <t>Lot. Rotifer</t>
-  </si>
-  <si>
-    <t>Paramecium</t>
-  </si>
-  <si>
-    <t>Balloon</t>
-  </si>
-  <si>
-    <t>tripod</t>
-  </si>
-  <si>
-    <t>volvox</t>
-  </si>
-  <si>
-    <t>unknown protozoa</t>
   </si>
   <si>
     <t># of rotifers</t>
@@ -261,30 +219,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -316,47 +256,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,304 +614,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CC0FB6-22C0-43A6-87D5-E73BDA075E7F}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="79.54296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="79.54296875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="B23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="B24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="B26" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="A39" s="12"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="A40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Data_Dictionary.xlsx
+++ b/Data/Data_Dictionary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdh19230\Desktop\Repository\Independent_Project_Howard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A699FF99-6376-44DF-BBBE-C9949075FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5EEAD3-C7D5-4697-AF0E-31B9893E5271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7E4A650-D8A7-4AD9-BA22-D3D525B62AC1}"/>
+    <workbookView xWindow="3780" yWindow="5230" windowWidth="14400" windowHeight="7360" xr2:uid="{B7E4A650-D8A7-4AD9-BA22-D3D525B62AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,12 +45,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Field row</t>
-  </si>
-  <si>
-    <t>Field column</t>
-  </si>
-  <si>
     <t>Band #</t>
   </si>
   <si>
@@ -196,6 +190,12 @@
   </si>
   <si>
     <t># of colpoda (species of protozoa)</t>
+  </si>
+  <si>
+    <t>Plant ID Alpha</t>
+  </si>
+  <si>
+    <t>Plant ID Numeric</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,230 +638,230 @@
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9"/>
     </row>
